--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2174.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2174.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.216849783503046</v>
+        <v>1.238266825675964</v>
       </c>
       <c r="B1">
-        <v>2.158101746446035</v>
+        <v>2.304747343063354</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.88580509616559</v>
+        <v>1.41278600692749</v>
       </c>
       <c r="E1">
-        <v>0.7525154187841515</v>
+        <v>0.8835155367851257</v>
       </c>
     </row>
   </sheetData>
